--- a/_raw_data/hab_list.xlsx
+++ b/_raw_data/hab_list.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="28705"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4820" yWindow="2180" windowWidth="27280" windowHeight="15000"/>
+    <workbookView xWindow="4820" yWindow="2180" windowWidth="27280" windowHeight="15000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="habitat_list" sheetId="1" r:id="rId1"/>
+    <sheet name="zone_depths" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Deep water</t>
   </si>
@@ -108,12 +109,36 @@
       <t>habitat types</t>
     </r>
   </si>
+  <si>
+    <t>zone</t>
+  </si>
+  <si>
+    <t>depth_min</t>
+  </si>
+  <si>
+    <t>depth_max</t>
+  </si>
+  <si>
+    <t>Epipelagic</t>
+  </si>
+  <si>
+    <t>Mesopelagic</t>
+  </si>
+  <si>
+    <t>Bathypelagic</t>
+  </si>
+  <si>
+    <t>Abyssopelagic</t>
+  </si>
+  <si>
+    <t>Hadopelagic</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,6 +150,27 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -147,14 +193,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -470,7 +521,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -480,7 +531,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -631,4 +682,91 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:3" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15">
+      <c r="A2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15">
+      <c r="A3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="2">
+        <v>200</v>
+      </c>
+      <c r="C3" s="2">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15">
+      <c r="A4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="2">
+        <v>700</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15">
+      <c r="A5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="2">
+        <v>2000</v>
+      </c>
+      <c r="C5" s="2">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15">
+      <c r="A6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="2">
+        <v>6000</v>
+      </c>
+      <c r="C6" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>